--- a/我的创作/财务/证券投资/股票/市值.xlsx
+++ b/我的创作/财务/证券投资/股票/市值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11500" activeTab="4"/>
+    <workbookView windowWidth="26500" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="主板" sheetId="1" r:id="rId1"/>
@@ -10065,6 +10065,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -19034,6 +19039,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -29017,6 +29027,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -29086,10 +29101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -29117,7 +29132,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29137,63 +29175,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29209,14 +29201,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29224,21 +29225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29253,7 +29239,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29261,7 +29269,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29294,7 +29309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29306,7 +29339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29318,13 +29357,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29336,67 +29465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29408,61 +29477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29507,8 +29522,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29524,6 +29548,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29545,9 +29593,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29566,186 +29616,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -30167,8 +30182,8 @@
   <sheetPr/>
   <dimension ref="A1:D1673"/>
   <sheetViews>
-    <sheetView topLeftCell="A1648" workbookViewId="0">
-      <selection activeCell="A1671" sqref="A1671:A1673"/>
+    <sheetView tabSelected="1" topLeftCell="A1648" workbookViewId="0">
+      <selection activeCell="D1673" sqref="D1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="3"/>
@@ -96661,7 +96676,7 @@
   <sheetPr/>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
@@ -96670,7 +96685,7 @@
     <col min="3" max="4" width="19.9411764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" spans="1:4">
+    <row r="1" ht="28" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -97972,7 +97987,7 @@
     <col min="3" max="4" width="12.4117647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" spans="1:4">
+    <row r="1" ht="28" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/我的创作/财务/证券投资/股票/市值.xlsx
+++ b/我的创作/财务/证券投资/股票/市值.xlsx
@@ -29101,10 +29101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -29145,17 +29145,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29168,10 +29159,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29180,6 +29188,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -29207,24 +29230,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29239,29 +29253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29275,8 +29274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29309,6 +29309,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -29321,25 +29327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29351,7 +29363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29363,31 +29375,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29405,25 +29417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29435,49 +29447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29532,6 +29532,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -29552,11 +29561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29571,21 +29586,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -29619,142 +29619,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -30182,7 +30182,7 @@
   <sheetPr/>
   <dimension ref="A1:D1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1648" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1433" workbookViewId="0">
       <selection activeCell="D1673" sqref="D1673"/>
     </sheetView>
   </sheetViews>
